--- a/QuestEngine/MilestoneSeq.xlsx
+++ b/QuestEngine/MilestoneSeq.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim.hsu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim.hsu\Documents\Github\Miscellaneous\QuestEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A25C745-1F1A-45D1-9108-60FE6886ADEA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64DB0C8-31B0-4632-B15C-7874FCBAE83D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" xr2:uid="{120D4E83-3663-41A3-879F-B508F032E73B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>SERVER</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>MilestoneIndex Increment</t>
+  </si>
+  <si>
+    <t>All milestone complete for Quest</t>
+  </si>
+  <si>
+    <t>New Quest start, new milestone start</t>
   </si>
 </sst>
 </file>
@@ -816,6 +822,262 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>42582</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>109818</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Arrow: Left 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63DA6A7-2959-4757-8463-FCFB75F1F68F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219823" y="7814236"/>
+          <a:ext cx="1887818" cy="513229"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>REQUEST</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>141941</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>149412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>54162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Arrow: Right 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C186C0-1A5A-4C28-9492-31E5374ACD83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3204882" y="8553824"/>
+          <a:ext cx="1938618" cy="465044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>RESPONSE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>164353</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>436984</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>8048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5771825B-3FE8-40C9-940C-0A41C3894764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5371353" y="7373471"/>
+          <a:ext cx="2110396" cy="852224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160950</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>65605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>298824</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>100986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9244EB-56D0-486C-B21C-E22E98885ACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1386126" y="9030311"/>
+          <a:ext cx="2752580" cy="1155969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>455706</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>134808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76858</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5A0C07-63D8-4A96-ABDF-F3A6CC77422E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4295588" y="9099514"/>
+          <a:ext cx="2826035" cy="933486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1116,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43172F11-CE81-4981-BBDA-51131AE05DBD}">
-  <dimension ref="C2:K48"/>
+  <dimension ref="B2:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1307,75 +1569,126 @@
       <c r="F32" s="1"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="F33" s="1"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="1"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F35" s="1"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F36" s="1"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F37" s="1"/>
+      <c r="H37" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F38" s="1"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F39" s="1"/>
+      <c r="H39" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F40" s="1"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F41" s="1"/>
+      <c r="H41" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F42" s="1"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F43" s="1"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F44" s="1"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F45" s="1"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F46" s="1"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
       <c r="F48" s="1"/>
       <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F49" s="1"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F50" s="1"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F51" s="1"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F52" s="1"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F53" s="1"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F54" s="1"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F55" s="1"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F56" s="1"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F57" s="1"/>
+      <c r="J57" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
